--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1556826.588098261</v>
+        <v>1560146.134371165</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14829673.35797655</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5724467.314121476</v>
+        <v>5724467.314121475</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,13 +674,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>148.8506349098462</v>
+        <v>146.8920447697784</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="3">
@@ -747,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -786,22 +786,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.714921000282511</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>96.50320698580613</v>
       </c>
       <c r="Y3" t="n">
         <v>205.5178444382804</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,70 +893,70 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>158.8413341243909</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>44.87778971584247</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1032,10 +1032,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>131.8742232355847</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>19.20171008547518</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>148.8506349098461</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,22 +1218,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>80.86228322859418</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>78.00062147146127</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1412,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>205.5178444382804</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="12">
@@ -1449,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>115.8864230944398</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>57.26739816553452</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1649,28 +1649,28 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>21.16030022554286</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1692,22 +1692,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>46.81577624213776</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>57.20971026027906</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1850,55 +1850,55 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
+        <v>21.85442600983729</v>
+      </c>
+      <c r="I17" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>46.03546545923035</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>91.05587790800567</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2041,13 +2041,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2081,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>100.8824071085284</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,19 +2126,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>63.88882306452221</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>188.2184153478179</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2281,16 +2281,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2318,16 +2318,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="F23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2369,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2397,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>132.1946129538656</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>31.69844046683744</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2561,22 +2561,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>50.46697834767978</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>137.7890700245944</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>196.5315760613044</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2752,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2837,10 +2837,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2889,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>32.03677880122244</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2931,7 +2931,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>13.56983118520881</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3038,16 +3038,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>33.80371536444981</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>11.19305615617957</v>
       </c>
     </row>
     <row r="33">
@@ -3114,22 +3114,22 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>209.5225654279961</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3205,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,13 +3229,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>212.2853856434421</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3308,13 +3308,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3326,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,19 +3354,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>128.4778061762884</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>57.81343218737562</v>
       </c>
     </row>
     <row r="37">
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,10 +3515,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3545,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
     </row>
     <row r="39">
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>67.26859421163454</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>85.31372784089217</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3700,13 +3700,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,13 +3740,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V41" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
       <c r="X41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>159.0801288120801</v>
       </c>
     </row>
     <row r="42">
@@ -3816,31 +3816,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>5.025818986541339</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>108.0109996132921</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
         <v>205.5178444382804</v>
@@ -3983,55 +3983,55 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
       <c r="T44" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>108.7702391107092</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4065,16 +4065,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>118.5827239134057</v>
       </c>
     </row>
     <row r="46">
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>604.3859801240053</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C2" t="n">
-        <v>396.792197863116</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D2" t="n">
-        <v>189.1984156022267</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E2" t="n">
-        <v>189.1984156022267</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F2" t="n">
-        <v>182.2529148530233</v>
+        <v>399.9383124821396</v>
       </c>
       <c r="G2" t="n">
-        <v>166.7956042316747</v>
+        <v>384.4810018607911</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4334,46 +4334,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T2" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U2" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V2" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W2" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y2" t="n">
-        <v>604.3859801240053</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.5646958002688</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="C3" t="n">
-        <v>130.5646958002688</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="D3" t="n">
-        <v>130.5646958002688</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="E3" t="n">
-        <v>130.5646958002688</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="F3" t="n">
-        <v>130.5646958002688</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G3" t="n">
         <v>130.5646958002688</v>
@@ -4410,22 +4410,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
-        <v>752.6768192397923</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4434,25 +4434,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>339.8907214957869</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V3" t="n">
-        <v>338.1584780611581</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W3" t="n">
-        <v>338.1584780611581</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X3" t="n">
-        <v>338.1584780611581</v>
+        <v>623.4238614516577</v>
       </c>
       <c r="Y3" t="n">
-        <v>130.5646958002688</v>
+        <v>415.8300791907684</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4504,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>453.0030327087026</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="C5" t="n">
-        <v>453.0030327087026</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="D5" t="n">
-        <v>443.6989813239244</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="E5" t="n">
-        <v>443.6989813239244</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="F5" t="n">
-        <v>236.1051990630351</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4577,7 +4577,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4586,31 +4586,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W5" t="n">
-        <v>453.0030327087026</v>
+        <v>454.031803447393</v>
       </c>
       <c r="X5" t="n">
-        <v>453.0030327087026</v>
+        <v>454.031803447393</v>
       </c>
       <c r="Y5" t="n">
-        <v>453.0030327087026</v>
+        <v>454.031803447393</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>380.1017799485678</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="C6" t="n">
-        <v>380.1017799485678</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="D6" t="n">
-        <v>380.1017799485678</v>
+        <v>571.967438644756</v>
       </c>
       <c r="E6" t="n">
-        <v>220.8643249431123</v>
+        <v>412.7299836393005</v>
       </c>
       <c r="F6" t="n">
-        <v>220.8643249431123</v>
+        <v>266.1954256661855</v>
       </c>
       <c r="G6" t="n">
         <v>220.8643249431123</v>
@@ -4650,19 +4650,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M6" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4680,16 +4680,16 @@
         <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>513.308066045118</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W6" t="n">
-        <v>380.1017799485678</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X6" t="n">
-        <v>380.1017799485678</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y6" t="n">
-        <v>380.1017799485678</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="7">
@@ -4747,28 +4747,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>255.5008658160403</v>
+        <v>454.031803447393</v>
       </c>
       <c r="C8" t="n">
-        <v>255.5008658160403</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="D8" t="n">
-        <v>255.5008658160403</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="E8" t="n">
-        <v>255.5008658160403</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="F8" t="n">
-        <v>47.90708355515102</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>469.413761616576</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>670.6884303378189</v>
+        <v>661.6255857082823</v>
       </c>
       <c r="S8" t="n">
-        <v>670.6884303378189</v>
+        <v>661.6255857082823</v>
       </c>
       <c r="T8" t="n">
-        <v>670.6884303378189</v>
+        <v>661.6255857082823</v>
       </c>
       <c r="U8" t="n">
-        <v>463.0946480769296</v>
+        <v>454.031803447393</v>
       </c>
       <c r="V8" t="n">
-        <v>255.5008658160403</v>
+        <v>454.031803447393</v>
       </c>
       <c r="W8" t="n">
-        <v>255.5008658160403</v>
+        <v>454.031803447393</v>
       </c>
       <c r="X8" t="n">
-        <v>255.5008658160403</v>
+        <v>454.031803447393</v>
       </c>
       <c r="Y8" t="n">
-        <v>255.5008658160403</v>
+        <v>454.031803447393</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>575.067534196224</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>575.067534196224</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>575.067534196224</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>415.8300791907684</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X9" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y9" t="n">
-        <v>743.2828712162921</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5048,10 +5048,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5060,31 +5060,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T11" t="n">
-        <v>431.628992076841</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0352098159517</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V11" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W11" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X11" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>614.4775954922324</v>
+        <v>253.275614671021</v>
       </c>
       <c r="C12" t="n">
-        <v>440.0245662111054</v>
+        <v>253.275614671021</v>
       </c>
       <c r="D12" t="n">
-        <v>322.9675731864187</v>
+        <v>253.275614671021</v>
       </c>
       <c r="E12" t="n">
-        <v>163.7301181809632</v>
+        <v>253.275614671021</v>
       </c>
       <c r="F12" t="n">
-        <v>17.19556020784815</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="G12" t="n">
-        <v>17.19556020784815</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>570.0333416264414</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5142,28 +5142,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="Y12" t="n">
-        <v>614.4775954922324</v>
+        <v>253.275614671021</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5221,28 +5221,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H14" t="n">
         <v>16.44142755506243</v>
@@ -5291,37 +5291,37 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T14" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U14" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V14" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W14" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>406.8838132313431</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="C15" t="n">
-        <v>406.8838132313431</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="D15" t="n">
-        <v>406.8838132313431</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="E15" t="n">
-        <v>406.8838132313431</v>
+        <v>74.22901367655643</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>74.22901367655643</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>74.22901367655643</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>74.22901367655643</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5364,16 +5364,16 @@
         <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5382,25 +5382,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X15" t="n">
-        <v>614.4775954922324</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="Y15" t="n">
-        <v>406.8838132313431</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5455,31 +5455,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E17" t="n">
-        <v>749.627473042513</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F17" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="G17" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5540,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>862.8876260635219</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C18" t="n">
-        <v>816.3871559026832</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D18" t="n">
-        <v>667.4527462414319</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5595,22 +5595,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
-        <v>487.8483949674443</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O18" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5619,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>770.9119918130111</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>568.7253971717771</v>
       </c>
       <c r="U18" t="n">
-        <v>862.8876260635219</v>
+        <v>340.5017789081662</v>
       </c>
       <c r="V18" t="n">
-        <v>862.8876260635219</v>
+        <v>340.5017789081662</v>
       </c>
       <c r="W18" t="n">
-        <v>862.8876260635219</v>
+        <v>340.5017789081662</v>
       </c>
       <c r="X18" t="n">
-        <v>862.8876260635219</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y18" t="n">
-        <v>862.8876260635219</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="19">
@@ -5689,19 +5689,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="21">
@@ -5835,40 +5835,40 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
         <v>19.28114311021272</v>
@@ -5929,13 +5929,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
         <v>19.28114311021272</v>
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224361</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>152.8110551848245</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6069,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>562.4161926976942</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V24" t="n">
-        <v>327.2640844659515</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W24" t="n">
-        <v>327.2640844659515</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X24" t="n">
-        <v>327.2640844659515</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6166,19 +6166,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>569.2254314512334</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C26" t="n">
-        <v>569.2254314512334</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D26" t="n">
-        <v>569.2254314512334</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E26" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6251,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V26" t="n">
-        <v>569.2254314512334</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W26" t="n">
-        <v>569.2254314512334</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X26" t="n">
-        <v>569.2254314512334</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y26" t="n">
-        <v>569.2254314512334</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6309,10 +6309,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M27" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>824.8762766979146</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>824.8762766979146</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V27" t="n">
-        <v>824.8762766979146</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W27" t="n">
-        <v>581.4275000538145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
-        <v>373.5759998482816</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
         <v>19.28114311021272</v>
@@ -6400,34 +6400,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X29" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y29" t="n">
-        <v>710.516763498309</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>284.787934186969</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6546,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>657.1098988866934</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>428.8862806230825</v>
       </c>
       <c r="V30" t="n">
-        <v>298.4948343740486</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="W30" t="n">
-        <v>284.787934186969</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X30" t="n">
-        <v>284.787934186969</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y30" t="n">
-        <v>284.787934186969</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6640,22 +6640,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U32" t="n">
-        <v>752.9257720901863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V32" t="n">
-        <v>752.9257720901863</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W32" t="n">
-        <v>752.9257720901863</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X32" t="n">
-        <v>752.9257720901863</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y32" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>508.9694238887622</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C33" t="n">
-        <v>508.9694238887622</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D33" t="n">
-        <v>508.9694238887622</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E33" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,16 +6786,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>752.4182005328623</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W33" t="n">
-        <v>508.9694238887622</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X33" t="n">
-        <v>508.9694238887622</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y33" t="n">
-        <v>508.9694238887622</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
         <v>19.28114311021272</v>
@@ -6877,31 +6877,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>418.6697947459187</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7029,37 +7029,37 @@
         <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>834.2815937164055</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>834.2815937164055</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>834.2815937164055</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V36" t="n">
-        <v>834.2815937164055</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W36" t="n">
-        <v>834.2815937164055</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X36" t="n">
-        <v>626.4300935108727</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="Y36" t="n">
-        <v>418.6697947459187</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>501.9060370580465</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="C39" t="n">
-        <v>327.4530077769195</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>87.22921807145974</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7260,43 +7260,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W39" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X39" t="n">
-        <v>877.8816728430684</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="Y39" t="n">
-        <v>670.1213740781145</v>
+        <v>246.4666730769152</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7415,13 +7415,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7430,31 +7430,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V41" t="n">
-        <v>431.628992076841</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X41" t="n">
-        <v>224.0352098159517</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>505.3755756808262</v>
+        <v>441.1856736372741</v>
       </c>
       <c r="C42" t="n">
-        <v>505.3755756808262</v>
+        <v>266.7326443561471</v>
       </c>
       <c r="D42" t="n">
-        <v>505.3755756808262</v>
+        <v>266.7326443561471</v>
       </c>
       <c r="E42" t="n">
-        <v>505.3755756808262</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F42" t="n">
-        <v>358.8410177077111</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G42" t="n">
-        <v>220.1101922903266</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H42" t="n">
-        <v>106.7410566979059</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
@@ -7494,19 +7494,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7521,19 +7521,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>816.9947929182314</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>609.4010106573421</v>
       </c>
       <c r="W42" t="n">
-        <v>822.0713777531216</v>
+        <v>609.4010106573421</v>
       </c>
       <c r="X42" t="n">
-        <v>712.9693579417154</v>
+        <v>609.4010106573421</v>
       </c>
       <c r="Y42" t="n">
-        <v>505.3755756808262</v>
+        <v>609.4010106573421</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7655,43 +7655,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T44" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U44" t="n">
-        <v>651.2927635848137</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V44" t="n">
-        <v>651.2927635848137</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W44" t="n">
-        <v>651.2927635848137</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>272.8449139228332</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="C45" t="n">
-        <v>162.9759855281775</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="D45" t="n">
-        <v>162.9759855281775</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="E45" t="n">
-        <v>162.9759855281775</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I45" t="n">
         <v>16.44142755506243</v>
@@ -7731,10 +7731,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M45" t="n">
-        <v>219.90409354896</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N45" t="n">
         <v>366.5706756325438</v>
@@ -7749,28 +7749,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U45" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V45" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W45" t="n">
-        <v>648.6540332037905</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="Y45" t="n">
-        <v>441.0602509429012</v>
+        <v>220.1101922903266</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.0713777531216</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.0713777531216</v>
+        <v>148.224788009872</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -7991,10 +7991,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,13 +8070,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8225,10 +8225,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8298,22 +8298,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8468,7 +8468,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>150.567170896597</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,13 +8696,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8939,10 +8939,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,10 +9012,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>154.8597658442563</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,7 +9483,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9492,13 +9492,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>198.1125443848066</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,13 +9957,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10194,22 +10194,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,19 +10434,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O33" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10677,13 +10677,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5030352242461</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11072,7 +11072,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,13 +11142,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>144.0674440055713</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,16 +11303,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,13 +11379,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N45" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>211.7044234967879</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23300,19 +23300,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>42.07573218289394</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>122.2344140318545</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23337,13 +23337,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>31.55864247019895</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23355,10 +23355,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>148.4152976117699</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23501,7 +23501,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>200.9102526910243</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23510,7 +23510,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23537,28 +23537,28 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>230.1853526822936</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>143.7231242791326</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23580,22 +23580,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>98.25343615124612</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>32.18692259113602</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,13 +23622,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23640,7 +23640,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23710,7 +23710,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>205.1127189901544</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23738,22 +23738,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>317.6203761059298</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23811,25 +23811,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>126.6730335290854</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23859,13 +23859,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>80.62729319583215</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23874,7 +23874,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23929,13 +23929,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>242.0155457579237</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23969,10 +23969,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,13 +23981,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>314.4203304066067</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24014,19 +24014,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24093,25 +24093,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>136.2759056302994</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>44.58217180160733</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24169,16 +24169,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24206,16 +24206,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F23" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,13 +24257,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24285,10 +24285,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>15.25045261077312</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24330,19 +24330,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>201.1021466825878</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24351,7 +24351,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24406,10 +24406,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24421,7 +24421,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24449,22 +24449,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>269.6014437650281</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>160.0089112227261</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24491,10 +24491,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24531,7 +24531,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>62.37565867022721</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>36.26901108812089</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>18.14994616795082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24640,13 +24640,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,16 +24677,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>297.5105822931005</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24725,10 +24725,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24777,10 +24777,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,13 +24804,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>168.1279498935992</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24819,7 +24819,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>238.1251519757108</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24880,7 +24880,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24889,7 +24889,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24926,16 +24926,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>305.6710867513173</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,22 +24968,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>375.044882499874</v>
       </c>
     </row>
     <row r="33">
@@ -25002,22 +25002,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>93.75625739087863</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,16 +25044,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>23.27802172142913</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25093,10 +25093,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
         <v>22.26949182588285</v>
@@ -25117,13 +25117,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>142.3976559772408</v>
+        <v>270.2632538415217</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25196,13 +25196,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25214,13 +25214,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25233,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25242,19 +25242,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>43.20536492754943</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>147.8692635899287</v>
       </c>
     </row>
     <row r="37">
@@ -25357,10 +25357,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25391,7 +25391,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25403,10 +25403,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,16 +25433,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>315.8939308547783</v>
       </c>
     </row>
     <row r="39">
@@ -25467,19 +25467,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>77.80061818174934</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25527,16 +25527,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>120.4592573625853</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25588,13 +25588,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,13 +25628,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25682,19 +25682,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>227.1578098439735</v>
       </c>
     </row>
     <row r="42">
@@ -25704,31 +25704,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,19 +25761,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>220.9155630944335</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>97.76198559018535</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
         <v>159.7550473327271</v>
@@ -25871,7 +25871,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,19 +25907,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>64.01572075205127</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659908</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>63.93825987760657</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25953,16 +25953,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26004,13 +26004,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>87.09997186389866</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>37.52545250819725</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26062,7 +26062,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>86.16204325169439</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>365553.4795689316</v>
+        <v>365553.4795689313</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>365553.4795689313</v>
+        <v>365553.4795689314</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>365553.4795689314</v>
+        <v>365553.4795689316</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>365553.4795689316</v>
+        <v>365553.4795689314</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>365553.4795689316</v>
+        <v>365553.4795689313</v>
       </c>
     </row>
     <row r="15">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.150411784</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
@@ -26323,13 +26323,13 @@
         <v>205084.9343854111</v>
       </c>
       <c r="F2" t="n">
-        <v>205084.934385411</v>
+        <v>205084.9343854111</v>
       </c>
       <c r="G2" t="n">
         <v>216008.8742907321</v>
       </c>
       <c r="H2" t="n">
-        <v>216008.874290732</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="I2" t="n">
         <v>216008.8742907321</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>289079.3271252676</v>
+        <v>288691.6857063813</v>
       </c>
       <c r="C4" t="n">
-        <v>289079.3271252676</v>
+        <v>288691.6857063813</v>
       </c>
       <c r="D4" t="n">
-        <v>289079.3271252676</v>
+        <v>288691.6857063813</v>
       </c>
       <c r="E4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="F4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="O4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="P4" t="n">
-        <v>541.4529778195923</v>
+        <v>153.8115589332268</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129600.9817629792</v>
+        <v>129988.6231818659</v>
       </c>
       <c r="C6" t="n">
-        <v>198474.7383446693</v>
+        <v>198862.3797635552</v>
       </c>
       <c r="D6" t="n">
-        <v>198474.7383446691</v>
+        <v>198862.3797635555</v>
       </c>
       <c r="E6" t="n">
-        <v>192047.996465744</v>
+        <v>192435.6378846304</v>
       </c>
       <c r="F6" t="n">
-        <v>192047.996465744</v>
+        <v>192435.6378846304</v>
       </c>
       <c r="G6" t="n">
-        <v>191038.056882656</v>
+        <v>191446.6300550994</v>
       </c>
       <c r="H6" t="n">
-        <v>200767.0998568231</v>
+        <v>201175.6730292664</v>
       </c>
       <c r="I6" t="n">
-        <v>200767.0998568231</v>
+        <v>201175.6730292664</v>
       </c>
       <c r="J6" t="n">
-        <v>146994.5889666137</v>
+        <v>147403.162139057</v>
       </c>
       <c r="K6" t="n">
-        <v>200767.0998568231</v>
+        <v>201175.6730292664</v>
       </c>
       <c r="L6" t="n">
-        <v>200767.0998568232</v>
+        <v>201175.6730292664</v>
       </c>
       <c r="M6" t="n">
-        <v>200767.0998568232</v>
+        <v>201175.6730292664</v>
       </c>
       <c r="N6" t="n">
-        <v>200767.0998568232</v>
+        <v>201175.6730292665</v>
       </c>
       <c r="O6" t="n">
-        <v>192047.996465744</v>
+        <v>192435.6378846304</v>
       </c>
       <c r="P6" t="n">
-        <v>192047.996465744</v>
+        <v>192435.6378846304</v>
       </c>
     </row>
   </sheetData>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,13 +27394,13 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>190.624167205921</v>
+        <v>192.5827573459887</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -27467,10 +27467,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27506,22 +27506,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>231.0856661491428</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>109.2697782176713</v>
       </c>
       <c r="Y3" t="n">
         <v>0.1648513390239543</v>
@@ -27555,13 +27555,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27591,7 +27591,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>242.0155457579238</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>345.4720307497525</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,25 +27658,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>190.3996345930221</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27698,16 +27698,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>92.46572744736817</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27752,10 +27752,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>119.8207599253349</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27819,7 +27819,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>396.1010274296599</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.018483031303532</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27910,7 +27910,7 @@
         <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27938,22 +27938,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27986,19 +27986,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>145.0790988523806</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>127.6820743058431</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -28029,7 +28029,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>24.98494807699677</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34702,7 +34702,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34711,10 +34711,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,13 +34790,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>0.494781459797586</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,10 +34945,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,22 +35018,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35188,7 +35188,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,13 +35416,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35659,10 +35659,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35744,7 +35744,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36212,13 +36212,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>55.51629994036219</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36914,22 +36914,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O33" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37397,13 +37397,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9067907798016</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,19 +37628,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37792,7 +37792,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37862,13 +37862,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M42" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="N42" t="n">
-        <v>12.72573192223801</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,16 +38023,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,13 +38099,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1560146.134371165</v>
+        <v>1561009.572011488</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5724467.314121475</v>
+        <v>5778482.578448998</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>14.96435308057242</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,13 +676,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>146.8920447697784</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>47.13383555196372</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>96.50320698580613</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>71.01467844038824</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>158.8413341243909</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -987,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>44.87778971584247</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1035,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.186967585368</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>148.8506349098461</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>235.9477392089837</v>
       </c>
     </row>
     <row r="9">
@@ -1215,25 +1217,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>123.1846644288418</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,25 +1262,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>80.86228322859418</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1330,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1385,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.778646031951277</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,22 +1451,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -1494,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>57.26739816553452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,28 +1609,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>181.0201173812374</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>57.20971026027906</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1749,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1822,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1856,58 +1858,58 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H17" t="n">
-        <v>21.85442600983729</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1932,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>91.05587790800567</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1989,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>44.59914040735609</v>
       </c>
     </row>
     <row r="19">
@@ -2041,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2093,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>100.8824071085284</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,31 +2125,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2172,16 +2174,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>30.15308120692869</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -2217,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>188.2184153478179</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2257,13 +2259,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>14.83685490770582</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2278,16 +2280,16 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2318,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="E23" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2372,10 +2374,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2403,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>77.92691371295918</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>31.69844046683744</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2518,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2555,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>112.3289263072337</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2600,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2679,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>170.7632668135831</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>196.5315760613044</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2795,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>84.41978777916125</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2834,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2871,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>40.25124374579003</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>32.03677880122244</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2992,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3044,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,22 +3073,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>241.0142888776591</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>11.19305615617957</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3105,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3162,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>191.6028113849731</v>
       </c>
     </row>
     <row r="34">
@@ -3190,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3229,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>84.41978777916125</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,13 +3313,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>9.73723617201896</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3345,16 +3347,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>72.87685072029042</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>57.81343218737562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,73 +3505,73 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="I38" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3588,10 +3590,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>67.26859421163454</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3633,19 +3635,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3703,10 +3705,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>130.4655268502615</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3740,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3758,10 +3760,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>41.7314554634327</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>20.48774511657669</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3873,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>5.025818986541339</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3940,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>205.5178444382804</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>131.0784874127591</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4065,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>118.5827239134057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4174,10 +4176,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.8838132313431</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="C2" t="n">
-        <v>406.8838132313431</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8838132313431</v>
+        <v>80.73687329735785</v>
       </c>
       <c r="E2" t="n">
-        <v>406.8838132313431</v>
+        <v>80.73687329735785</v>
       </c>
       <c r="F2" t="n">
-        <v>399.9383124821396</v>
+        <v>73.79137254815437</v>
       </c>
       <c r="G2" t="n">
-        <v>384.4810018607911</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H2" t="n">
-        <v>236.1051990630351</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="T2" t="n">
-        <v>614.4775954922324</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="Y2" t="n">
-        <v>406.8838132313431</v>
+        <v>149.9054410655621</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>415.8300791907684</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="C3" t="n">
-        <v>415.8300791907684</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D3" t="n">
-        <v>415.8300791907684</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E3" t="n">
-        <v>415.8300791907684</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F3" t="n">
-        <v>269.2955212176533</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>130.5646958002688</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N3" t="n">
-        <v>423.3667595428576</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O3" t="n">
-        <v>626.8294255367553</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P3" t="n">
-        <v>809.472903150106</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="U3" t="n">
-        <v>720.9018483060073</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V3" t="n">
-        <v>720.9018483060073</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W3" t="n">
-        <v>720.9018483060073</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="X3" t="n">
-        <v>623.4238614516577</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="Y3" t="n">
-        <v>415.8300791907684</v>
+        <v>112.3871215328157</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>246.4380211865037</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C5" t="n">
-        <v>38.84423892561444</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D5" t="n">
-        <v>38.84423892561444</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E5" t="n">
-        <v>38.84423892561444</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>31.89873817641097</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>614.4775954922324</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>454.031803447393</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>454.031803447393</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>454.031803447393</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.9018483060073</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C6" t="n">
-        <v>720.9018483060073</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>571.967438644756</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>412.7299836393005</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>266.1954256661855</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>141.7989876128999</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.9018483060073</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>454.031803447393</v>
+        <v>725.7261058045921</v>
       </c>
       <c r="C8" t="n">
-        <v>246.4380211865037</v>
+        <v>725.7261058045921</v>
       </c>
       <c r="D8" t="n">
-        <v>246.4380211865037</v>
+        <v>725.7261058045921</v>
       </c>
       <c r="E8" t="n">
-        <v>38.84423892561444</v>
+        <v>725.7261058045921</v>
       </c>
       <c r="F8" t="n">
-        <v>31.89873817641097</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>399.9799451336186</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>603.4426111275161</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>752.6375612701642</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>661.6255857082823</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>661.6255857082823</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>661.6255857082823</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>454.031803447393</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>454.031803447393</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>454.031803447393</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>454.031803447393</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>454.031803447393</v>
+        <v>725.7261058045921</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>540.5358718529395</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>381.298416847484</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>234.763858874369</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>29.03990215807806</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>232.5025681519757</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>232.5025681519757</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>639.2227743377304</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>431.628992076841</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W9" t="n">
-        <v>431.628992076841</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X9" t="n">
-        <v>224.0352098159517</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>811.9797623848946</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>811.9797623848946</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V11" t="n">
-        <v>604.3859801240053</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W11" t="n">
-        <v>604.3859801240053</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X11" t="n">
-        <v>396.792197863116</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y11" t="n">
-        <v>189.1984156022267</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>253.275614671021</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C12" t="n">
-        <v>253.275614671021</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D12" t="n">
-        <v>253.275614671021</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E12" t="n">
-        <v>253.275614671021</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F12" t="n">
-        <v>106.7410566979059</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G12" t="n">
-        <v>106.7410566979059</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H12" t="n">
-        <v>106.7410566979059</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>752.1869855945927</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>518.7152536647734</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>518.7152536647734</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>311.1214714038841</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>311.1214714038841</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>311.1214714038841</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>253.275614671021</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.8838132313431</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>406.8838132313431</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D14" t="n">
-        <v>406.8838132313431</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E14" t="n">
-        <v>224.0352098159517</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F14" t="n">
-        <v>224.0352098159517</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G14" t="n">
-        <v>224.0352098159517</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>406.8838132313431</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>406.8838132313431</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>406.8838132313431</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>233.4664686820119</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>233.4664686820119</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D15" t="n">
-        <v>233.4664686820119</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E15" t="n">
-        <v>74.22901367655643</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F15" t="n">
-        <v>74.22901367655643</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>74.22901367655643</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>74.22901367655643</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>423.3667595428576</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3667595428576</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>626.8294255367553</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>809.472903150106</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>648.6540332037905</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>648.6540332037905</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>441.0602509429012</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>441.0602509429012</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>441.0602509429012</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>233.4664686820119</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>233.4664686820119</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.94135112442973</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>63.94135112442973</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>63.94135112442973</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>63.94135112442973</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>63.94135112442973</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5542,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>132.6502787026334</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6502787026334</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D18" t="n">
-        <v>132.6502787026334</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E18" t="n">
-        <v>132.6502787026334</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>132.6502787026334</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>621.8469951458151</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>770.9119918130111</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>568.7253971717771</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>340.5017789081662</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V18" t="n">
-        <v>340.5017789081662</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W18" t="n">
-        <v>340.5017789081662</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X18" t="n">
-        <v>132.6502787026334</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y18" t="n">
-        <v>132.6502787026334</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="19">
@@ -5689,19 +5691,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>577.2332497330343</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U20" t="n">
-        <v>577.2332497330343</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V20" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>140.7925626906184</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,13 +5837,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5856,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>470.5814199598456</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W21" t="n">
-        <v>227.1326433157456</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>279.5233881080029</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>961.308225475175</v>
       </c>
       <c r="R22" t="n">
-        <v>66.78106667958005</v>
+        <v>961.308225475175</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>485.167420504237</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C23" t="n">
-        <v>485.167420504237</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D23" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>728.6161971483371</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>485.167420504237</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V23" t="n">
-        <v>485.167420504237</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W23" t="n">
-        <v>485.167420504237</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X23" t="n">
-        <v>485.167420504237</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y23" t="n">
-        <v>485.167420504237</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>97.99519736572705</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6069,16 +6071,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>227.0414418751666</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>227.0414418751666</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
         <v>19.28114311021272</v>
@@ -6166,31 +6168,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>132.7447050367114</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>132.7447050367114</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D26" t="n">
-        <v>132.7447050367114</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>132.7447050367114</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>132.7447050367114</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>132.7447050367114</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6306,13 +6308,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="M27" t="n">
         <v>234.810827406191</v>
-      </c>
-      <c r="M27" t="n">
-        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>791.5690072140876</v>
       </c>
       <c r="U27" t="n">
-        <v>461.2466632505798</v>
+        <v>791.5690072140876</v>
       </c>
       <c r="V27" t="n">
-        <v>262.7299197543128</v>
+        <v>791.5690072140876</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>548.1202305699876</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>340.2687303644548</v>
       </c>
     </row>
     <row r="28">
@@ -6406,16 +6408,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>348.0024326625565</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C29" t="n">
-        <v>348.0024326625565</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D29" t="n">
-        <v>104.5536560184564</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>348.0024326625565</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>348.0024326625565</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>348.0024326625565</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>173.3081006680779</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>59.93896507565721</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6543,16 +6545,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>657.1098988866934</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>428.8862806230825</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>193.7341723913397</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W30" t="n">
-        <v>193.7341723913397</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X30" t="n">
-        <v>193.7341723913397</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="Y30" t="n">
-        <v>193.7341723913397</v>
+        <v>312.0389260854624</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>30.58726043968704</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>30.58726043968704</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>83.81530782185143</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6786,16 +6788,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6810,19 +6812,19 @@
         <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>327.2640844659515</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W33" t="n">
-        <v>83.81530782185143</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X33" t="n">
-        <v>83.81530782185143</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y33" t="n">
-        <v>83.81530782185143</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="34">
@@ -6832,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
         <v>19.28114311021272</v>
@@ -6877,31 +6879,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>348.0024326625565</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C35" t="n">
-        <v>104.5536560184564</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="T35" t="n">
-        <v>591.4512093066566</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U35" t="n">
-        <v>591.4512093066566</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V35" t="n">
-        <v>591.4512093066566</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W35" t="n">
-        <v>591.4512093066566</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X35" t="n">
-        <v>591.4512093066566</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y35" t="n">
-        <v>591.4512093066566</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>92.8941236357586</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7017,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7059,7 +7061,7 @@
         <v>252.1315786412141</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.7341723913397</v>
+        <v>252.1315786412141</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>577.2332497330343</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>577.2332497330343</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X38" t="n">
-        <v>577.2332497330343</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>246.4666730769152</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>246.4666730769152</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>246.4666730769152</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>87.22921807145974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7257,7 +7259,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M39" t="n">
         <v>473.4149733950735</v>
@@ -7281,22 +7283,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V39" t="n">
-        <v>454.3181732824481</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W39" t="n">
-        <v>454.3181732824481</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X39" t="n">
-        <v>246.4666730769152</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>246.4666730769152</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7351,7 +7353,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R40" t="n">
         <v>19.28114311021272</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>443.6989813239244</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C41" t="n">
-        <v>236.1051990630351</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D41" t="n">
-        <v>236.1051990630351</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E41" t="n">
-        <v>28.51141680214578</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F41" t="n">
-        <v>28.51141680214578</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G41" t="n">
-        <v>28.51141680214578</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H41" t="n">
-        <v>28.51141680214578</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>911.8125548258105</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>700.6811714053606</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848946</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U41" t="n">
-        <v>811.9797623848946</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="V41" t="n">
-        <v>811.9797623848946</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W41" t="n">
-        <v>604.3859801240053</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X41" t="n">
-        <v>604.3859801240053</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y41" t="n">
-        <v>443.6989813239244</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>441.1856736372741</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="C42" t="n">
-        <v>266.7326443561471</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="D42" t="n">
-        <v>266.7326443561471</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="E42" t="n">
-        <v>107.4951893506917</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="F42" t="n">
-        <v>107.4951893506917</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G42" t="n">
-        <v>107.4951893506917</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
-        <v>107.4951893506917</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>163.1080096386462</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M42" t="n">
-        <v>163.1080096386462</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>816.9947929182314</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>609.4010106573421</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>609.4010106573421</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X42" t="n">
-        <v>609.4010106573421</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y42" t="n">
-        <v>609.4010106573421</v>
+        <v>292.8299288097498</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R43" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>431.628992076841</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>431.628992076841</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X44" t="n">
-        <v>431.628992076841</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>220.1101922903266</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="C45" t="n">
-        <v>220.1101922903266</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="D45" t="n">
-        <v>220.1101922903266</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E45" t="n">
-        <v>220.1101922903266</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F45" t="n">
-        <v>220.1101922903266</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G45" t="n">
-        <v>220.1101922903266</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H45" t="n">
-        <v>106.7410566979059</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>163.1080096386462</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>547.4845037566762</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>547.4845037566762</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>547.4845037566762</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W45" t="n">
-        <v>339.8907214957869</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X45" t="n">
-        <v>339.8907214957869</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y45" t="n">
-        <v>220.1101922903266</v>
+        <v>411.587349213889</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.224788009872</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C46" t="n">
-        <v>148.224788009872</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.224788009872</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E46" t="n">
-        <v>148.224788009872</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F46" t="n">
-        <v>148.224788009872</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>148.224788009872</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R46" t="n">
-        <v>148.224788009872</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S46" t="n">
-        <v>148.224788009872</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T46" t="n">
-        <v>148.224788009872</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U46" t="n">
-        <v>148.224788009872</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V46" t="n">
-        <v>148.224788009872</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W46" t="n">
-        <v>148.224788009872</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X46" t="n">
-        <v>148.224788009872</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y46" t="n">
-        <v>148.224788009872</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8797879011645</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>152.7075060082595</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,10 +8224,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8295,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>164.1205091169155</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>150.567170896597</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,10 +8698,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8769,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8933,13 +8935,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9009,22 +9011,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.7075060082595</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O18" t="n">
-        <v>303.774711870172</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,16 +9485,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O21" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133072</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10191,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10434,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>174.6270615612551</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,10 +10907,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M39" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -11066,13 +11068,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,16 +11144,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>286.7024424905649</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11303,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11379,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>290.282096632709</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>211.7044234967879</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23273,13 +23275,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>331.6961560838159</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23309,22 +23311,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,22 +23339,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23382,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>148.4152976117699</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23495,28 +23497,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>200.9102526910243</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>32.18692259113602</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,13 +23624,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23637,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,7 +23697,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23710,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1127189901544</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23744,16 +23746,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>317.6203761059298</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23820,19 +23822,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>80.62729319583215</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23877,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>161.0835553699483</v>
       </c>
     </row>
     <row r="19">
@@ -23929,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>242.0155457579237</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>314.4203304066067</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,22 +24013,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>306.5685030994106</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24060,16 +24062,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>82.08236302956777</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24105,16 +24107,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>44.58217180160733</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24145,13 +24147,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195525</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24166,16 +24168,16 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24206,13 +24208,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>124.4792166637132</v>
       </c>
       <c r="E23" t="n">
-        <v>161.7172443298368</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,10 +24262,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24291,10 +24293,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>67.1422986804247</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>201.1021466825878</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24406,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24443,13 +24445,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>269.6014437650281</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24488,28 +24490,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24531,7 +24533,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24567,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>29.40146188123848</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>36.26901108812089</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24683,19 +24685,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E29" t="n">
-        <v>297.5105822931005</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24740,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24759,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>49.14538910562504</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24804,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>168.1279498935992</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24880,7 +24882,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24889,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24932,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,22 +24961,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>108.226679839754</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>375.044882499874</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>93.75625739087863</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25050,19 +25052,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>14.07988439233128</v>
       </c>
     </row>
     <row r="34">
@@ -25078,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25117,13 +25119,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>270.2632538415217</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25199,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>140.1318817691307</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,16 +25235,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>72.19236167309346</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>147.8692635899287</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25360,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,13 +25393,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25406,13 +25408,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,31 +25435,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>315.8939308547783</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25476,10 +25478,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>77.80061818174934</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25521,19 +25523,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25591,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.82786452690794</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25628,13 +25630,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25646,10 +25648,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>108.137662477717</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>227.1578098439735</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>124.5814672768072</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25761,16 +25763,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>220.9155630944335</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25828,13 +25830,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25913,16 +25915,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>70.32553552659908</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>35.45469623710824</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25953,7 +25955,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25962,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25992,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26004,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>87.09997186389866</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26035,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>37.52545250819725</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>115.2022481737659</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26062,10 +26064,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>347066.8120368498</v>
+        <v>365553.4795689314</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>347066.8120368498</v>
+        <v>365553.4795689316</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>365553.4795689313</v>
+        <v>365553.4795689316</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>365553.4795689316</v>
+        <v>365553.4795689313</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>365553.4795689314</v>
+        <v>365553.4795689316</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>365553.4795689314</v>
+        <v>365553.4795689316</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>365553.4795689316</v>
+        <v>365553.4795689315</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>365553.4795689313</v>
+        <v>365553.4795689314</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>347066.8120368498</v>
+        <v>365553.4795689314</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>347066.8120368498</v>
+        <v>365553.4795689314</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="F2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="G2" t="n">
         <v>216008.8742907321</v>
@@ -26332,10 +26334,10 @@
         <v>216008.8742907321</v>
       </c>
       <c r="I2" t="n">
-        <v>216008.8742907321</v>
+        <v>216008.874290732</v>
       </c>
       <c r="J2" t="n">
-        <v>216008.8742907321</v>
+        <v>216008.874290732</v>
       </c>
       <c r="K2" t="n">
         <v>216008.8742907321</v>
@@ -26350,10 +26352,10 @@
         <v>216008.8742907321</v>
       </c>
       <c r="O2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="P2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.8742907321</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>288691.6857063813</v>
+        <v>329658.5476262335</v>
       </c>
       <c r="C4" t="n">
-        <v>288691.6857063813</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="D4" t="n">
-        <v>288691.6857063813</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8115589332268</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8115589332268</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26436,7 +26438,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
         <v>179.5324977039669</v>
@@ -26451,13 +26453,13 @@
         <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8115589332268</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8115589332268</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129988.6231818659</v>
+        <v>149204.1617623444</v>
       </c>
       <c r="C6" t="n">
-        <v>198862.3797635552</v>
+        <v>145694.4993291909</v>
       </c>
       <c r="D6" t="n">
-        <v>198862.3797635555</v>
+        <v>206270.8215158591</v>
       </c>
       <c r="E6" t="n">
-        <v>192435.6378846304</v>
+        <v>201175.6730292665</v>
       </c>
       <c r="F6" t="n">
-        <v>192435.6378846304</v>
+        <v>201175.6730292664</v>
       </c>
       <c r="G6" t="n">
-        <v>191446.6300550994</v>
+        <v>201175.6730292664</v>
       </c>
       <c r="H6" t="n">
         <v>201175.6730292664</v>
@@ -26543,10 +26545,10 @@
         <v>201175.6730292664</v>
       </c>
       <c r="J6" t="n">
-        <v>147403.162139057</v>
+        <v>187174.4408889871</v>
       </c>
       <c r="K6" t="n">
-        <v>201175.6730292664</v>
+        <v>152918.7200956338</v>
       </c>
       <c r="L6" t="n">
         <v>201175.6730292664</v>
@@ -26558,10 +26560,10 @@
         <v>201175.6730292665</v>
       </c>
       <c r="O6" t="n">
-        <v>192435.6378846304</v>
+        <v>201175.6730292664</v>
       </c>
       <c r="P6" t="n">
-        <v>192435.6378846304</v>
+        <v>201175.6730292664</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>311.7603627610578</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>339.7186885401105</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,13 +27396,13 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>192.5827573459887</v>
+        <v>285.9622731058174</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,16 +27423,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,28 +27460,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>93.93253655468899</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.02399860067941</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27521,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>109.2697782176713</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27555,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27585,13 +27587,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>170.5040690270225</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>174.4330604183317</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>260.1571197910224</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,31 +27615,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>344.2880590747468</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27673,10 +27675,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>190.3996345930221</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27707,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>92.46572744736817</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27755,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>206.4061090279471</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.6450125965693</v>
+        <v>68.91450442245211</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27853,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27895,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>1.018483031303532</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27907,7 +27909,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>150.2901994470699</v>
       </c>
     </row>
     <row r="9">
@@ -27935,25 +27937,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>14.15885273436888</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>145.0790988523806</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28050,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28062,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>183.6421058297144</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7815764794778</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>21.52426467247106</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>12.72573192223801</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35653,13 +35655,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.72573192223796</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O18" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36911,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37154,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>43.28534947792182</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37625,10 +37627,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M39" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37786,13 +37788,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>148.1480627106907</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38023,13 +38025,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>148.1480627106907</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1561009.572011488</v>
+        <v>1492158.275570051</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -661,28 +661,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="D2" t="n">
-        <v>14.96435308057242</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H2" t="n">
-        <v>53.51252900994975</v>
+        <v>25.19384698280639</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>46.38724422570589</v>
+      </c>
+      <c r="E3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>47.13383555196372</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>23.44046883036203</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="T4" t="n">
+      <c r="Y4" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="U4" t="n">
-        <v>26.16190956546853</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>71.01467844038824</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>222.3396163656984</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -977,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>45.28887413297245</v>
+        <v>214.5088858075649</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1141,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>235.9477392089837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1226,10 +1226,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>123.1846644288418</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1262,7 +1262,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>26.2007560477438</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>7.778646031951277</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,31 +1414,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>123.3365499318637</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="C14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>241.0142888776591</v>
@@ -1627,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="15">
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>55.66595177720879</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1888,31 +1888,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1934,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1979,10 +1979,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>44.59914040735609</v>
+        <v>70.64856914772001</v>
       </c>
     </row>
     <row r="19">
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2174,16 +2174,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>30.15308120692869</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>149.2992955570995</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2259,13 +2259,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>14.83685490770582</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>77.92691371295918</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>40.01994531875582</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2481,52 +2481,52 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2557,17 +2557,17 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2687,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>170.7632668135831</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2885,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>40.25124374579003</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2936,7 +2936,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2853856434421</v>
+        <v>110.8731063230731</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>191.6028113849731</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="34">
@@ -3192,55 +3192,55 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>9.73723617201896</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>114.9581870864144</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3353,10 +3353,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>72.87685072029042</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,19 +3514,19 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>241.0142888776591</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>109.8883707013301</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -3644,7 +3644,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3702,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>41.7314554634327</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3827,22 +3827,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>20.48774511657669</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>48.4831681832873</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3945,10 +3945,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S43" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3976,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T44" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>90.38893773807641</v>
+      </c>
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>131.0784874127591</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>15.59049435698037</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4118,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4309,40 +4309,40 @@
         <v>149.9054410655621</v>
       </c>
       <c r="C2" t="n">
+        <v>149.9054410655621</v>
+      </c>
+      <c r="D2" t="n">
+        <v>149.9054410655621</v>
+      </c>
+      <c r="E2" t="n">
+        <v>149.9054410655621</v>
+      </c>
+      <c r="F2" t="n">
         <v>95.85238145955221</v>
       </c>
-      <c r="D2" t="n">
-        <v>80.73687329735785</v>
-      </c>
-      <c r="E2" t="n">
-        <v>80.73687329735785</v>
-      </c>
-      <c r="F2" t="n">
-        <v>73.79137254815437</v>
-      </c>
       <c r="G2" t="n">
-        <v>58.33406192680583</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>110.2358097604965</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="N2" t="n">
-        <v>161.0727123199487</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
         <v>161.0727123199487</v>
@@ -4354,10 +4354,10 @@
         <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
         <v>149.9054410655621</v>
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.3871215328157</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="C3" t="n">
-        <v>58.33406192680583</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="D3" t="n">
-        <v>4.28100232079598</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="E3" t="n">
-        <v>4.28100232079598</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="F3" t="n">
-        <v>4.28100232079598</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>4.28100232079598</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>110.2358097604965</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M3" t="n">
+        <v>55.11790488024824</v>
+      </c>
+      <c r="N3" t="n">
+        <v>108.0953086000985</v>
+      </c>
+      <c r="O3" t="n">
         <v>161.0727123199487</v>
-      </c>
-      <c r="N3" t="n">
-        <v>214.050116039799</v>
-      </c>
-      <c r="O3" t="n">
-        <v>214.050116039799</v>
       </c>
       <c r="P3" t="n">
         <v>214.050116039799</v>
@@ -4433,28 +4433,28 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>166.4401811388256</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>166.4401811388256</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>112.3871215328157</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>112.3871215328157</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>112.3871215328157</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>112.3871215328157</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>112.3871215328157</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>112.3871215328157</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4506,31 +4506,31 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>84.76023320505688</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="T4" t="n">
-        <v>30.70717359904702</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="U4" t="n">
-        <v>4.28100232079598</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V4" t="n">
-        <v>4.28100232079598</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W4" t="n">
-        <v>4.28100232079598</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="X4" t="n">
-        <v>4.28100232079598</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y4" t="n">
         <v>4.28100232079598</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="C5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="D5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="E5" t="n">
-        <v>559.1338160830064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="F5" t="n">
-        <v>315.6850394389064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817.1412885554689</v>
+        <v>444.0253891924244</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4655,16 +4655,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W6" t="n">
-        <v>817.1412885554689</v>
+        <v>444.0253891924244</v>
       </c>
       <c r="X6" t="n">
-        <v>817.1412885554689</v>
+        <v>444.0253891924244</v>
       </c>
       <c r="Y6" t="n">
-        <v>817.1412885554689</v>
+        <v>444.0253891924244</v>
       </c>
     </row>
     <row r="7">
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>725.7261058045921</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>725.7261058045921</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>725.7261058045921</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E8" t="n">
-        <v>725.7261058045921</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F8" t="n">
-        <v>718.7806050553886</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>725.7261058045921</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>689.4702815141908</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C9" t="n">
-        <v>689.4702815141908</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D9" t="n">
-        <v>540.5358718529395</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>381.298416847484</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>234.763858874369</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>689.4702815141908</v>
+        <v>836.4222159142857</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4992,22 +4992,22 @@
         <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>738.7078125165641</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U11" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V11" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C12" t="n">
-        <v>816.3871559026832</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D12" t="n">
-        <v>667.4527462414319</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E12" t="n">
-        <v>508.2152912359765</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F12" t="n">
-        <v>361.6807332628614</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G12" t="n">
-        <v>222.9499078454769</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5123,22 +5123,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5153,19 +5153,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5235,16 +5235,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5384,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>907.8289213922435</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5469,19 +5469,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="X17" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="Y17" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="X17" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5627,19 +5627,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>761.8705608694022</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W18" t="n">
-        <v>761.8705608694022</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X18" t="n">
-        <v>554.0190606638694</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="Y18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5697,13 +5697,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>284.1276524520142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>279.5233881080029</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>140.7925626906184</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5840,7 +5840,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
         <v>473.4149733950735</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>813.2497862610408</v>
       </c>
       <c r="V21" t="n">
-        <v>487.2836868729568</v>
+        <v>813.2497862610408</v>
       </c>
       <c r="W21" t="n">
-        <v>487.2836868729568</v>
+        <v>569.8010096169406</v>
       </c>
       <c r="X21" t="n">
-        <v>487.2836868729568</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y21" t="n">
-        <v>279.5233881080029</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C23" t="n">
-        <v>251.810259228364</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>257.2326523711826</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="C24" t="n">
-        <v>257.2326523711826</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D24" t="n">
-        <v>257.2326523711826</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E24" t="n">
-        <v>97.99519736572705</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6071,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>548.0290291294086</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>548.0290291294086</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>548.0290291294086</v>
       </c>
       <c r="X24" t="n">
-        <v>257.2326523711826</v>
+        <v>548.0290291294086</v>
       </c>
       <c r="Y24" t="n">
-        <v>257.2326523711826</v>
+        <v>340.2687303644548</v>
       </c>
     </row>
     <row r="25">
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
         <v>19.28114311021272</v>
@@ -6174,25 +6174,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>340.2687303644548</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6311,10 +6311,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6335,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>791.5690072140876</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>791.5690072140876</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>791.5690072140876</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>548.1202305699876</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>340.2687303644548</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>340.2687303644548</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6417,7 +6417,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>312.0389260854624</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C30" t="n">
-        <v>312.0389260854624</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D30" t="n">
-        <v>312.0389260854624</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E30" t="n">
-        <v>312.0389260854624</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F30" t="n">
-        <v>312.0389260854624</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G30" t="n">
-        <v>173.3081006680779</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H30" t="n">
-        <v>59.93896507565721</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6545,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>555.4877027295624</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>312.0389260854624</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>312.0389260854624</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>312.0389260854624</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.7108255783361</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C32" t="n">
-        <v>233.7108255783361</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="F32" t="n">
-        <v>233.7108255783361</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="33">
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
         <v>19.28114311021272</v>
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>555.4877027295624</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>555.4877027295624</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>555.4877027295624</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
         <v>19.28114311021272</v>
@@ -6888,22 +6888,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C35" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D35" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E35" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F35" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G35" t="n">
         <v>231.8830517671884</v>
@@ -6961,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>944.1299480494607</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>944.1299480494607</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>718.7806050553886</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U35" t="n">
-        <v>718.7806050553886</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="V35" t="n">
-        <v>718.7806050553886</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W35" t="n">
-        <v>718.7806050553886</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X35" t="n">
-        <v>718.7806050553886</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y35" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>252.1315786412141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>252.1315786412141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>252.1315786412141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>92.8941236357586</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7019,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>252.1315786412141</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>252.1315786412141</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>252.1315786412141</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>252.1315786412141</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="39">
@@ -7259,46 +7259,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>853.0588012668684</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>650.8722066256344</v>
       </c>
       <c r="U39" t="n">
-        <v>259.0600686093459</v>
+        <v>422.6485883620235</v>
       </c>
       <c r="V39" t="n">
-        <v>23.90796037760316</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
         <v>19.28114311021272</v>
@@ -7350,34 +7350,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E41" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>911.8125548258105</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>700.6811714053606</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>231.8830517671884</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>231.8830517671884</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>231.8830517671884</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>231.8830517671884</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>231.8830517671884</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>292.8299288097498</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="C42" t="n">
-        <v>292.8299288097498</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D42" t="n">
-        <v>292.8299288097498</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E42" t="n">
-        <v>292.8299288097498</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F42" t="n">
-        <v>272.1352367728036</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>915.0842583558006</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>915.0842583558006</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>915.0842583558006</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>915.0842583558006</v>
       </c>
       <c r="W42" t="n">
-        <v>500.6814290152826</v>
+        <v>671.6354817117005</v>
       </c>
       <c r="X42" t="n">
-        <v>292.8299288097498</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="Y42" t="n">
-        <v>292.8299288097498</v>
+        <v>463.7839815061678</v>
       </c>
     </row>
     <row r="43">
@@ -7593,7 +7593,7 @@
         <v>66.78106667958005</v>
       </c>
       <c r="R43" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V44" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W44" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X44" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y44" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>279.1848366757484</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="C45" t="n">
-        <v>279.1848366757484</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="D45" t="n">
-        <v>279.1848366757484</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E45" t="n">
-        <v>279.1848366757484</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F45" t="n">
-        <v>132.6502787026334</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V45" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W45" t="n">
-        <v>619.4388494194218</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X45" t="n">
-        <v>411.587349213889</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y45" t="n">
-        <v>411.587349213889</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
         <v>19.28114311021272</v>
@@ -7827,31 +7827,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>281.6966398529821</v>
       </c>
       <c r="N2" t="n">
-        <v>280.7634702223003</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
         <v>284.7455247652193</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>193.4844405477277</v>
@@ -8072,10 +8072,10 @@
         <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9488,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,22 +10907,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -11156,7 +11156,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -23272,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>331.6961560838159</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>166.9258651286752</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23339,25 +23339,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>21.73266246152021</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23393,13 +23393,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>162.5207159210556</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>165.8617568640524</v>
@@ -23515,10 +23515,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23548,7 +23548,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>116.017219326629</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23743,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23776,31 +23776,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U17" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23822,19 +23822,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23867,10 +23867,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>161.0835553699483</v>
+        <v>135.0341266295844</v>
       </c>
     </row>
     <row r="19">
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24019,16 +24019,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>306.5685030994106</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24062,16 +24062,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>82.08236302956777</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>76.64208652387532</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24147,13 +24147,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>140.6136200195525</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,7 +24168,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24208,19 +24208,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>124.4792166637132</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,13 +24259,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24287,16 +24287,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>67.1422986804247</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24335,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>185.921436762219</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24445,16 +24445,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,22 +24496,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24533,7 +24533,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24575,13 +24575,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>29.40146188123848</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24657,10 +24657,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>296.8154002296655</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24773,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>49.14538910562504</v>
+        <v>59.59762388653245</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24809,13 +24809,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24934,10 +24934,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>127.189416472325</v>
+        <v>228.601695792694</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24964,13 +24964,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25046,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>14.07988439233128</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="34">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>140.1318817691307</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>108.137662477717</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25241,10 +25241,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>72.19236167309346</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>105.593260554236</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25335,7 +25335,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>22.26949182588285</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,19 +25402,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25450,7 +25450,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>108.226679839754</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>61.79480040250768</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25566,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25590,13 +25590,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,10 +25636,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25648,7 +25648,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>108.137662477717</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25715,22 +25715,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>124.5814672768072</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,19 +25757,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>123.2000029205505</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S43" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>35.45469623710824</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>131.8545712076584</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26006,10 +26006,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>115.2022481737659</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26067,7 +26067,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>365553.4795689316</v>
+        <v>365553.4795689314</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>365553.4795689313</v>
+        <v>365553.4795689316</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>365553.4795689316</v>
+        <v>365553.4795689314</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>365553.4795689316</v>
+        <v>365553.4795689314</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>365553.4795689315</v>
+        <v>365553.4795689313</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>365553.4795689314</v>
+        <v>365553.4795689316</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>365553.4795689314</v>
+        <v>365553.4795689316</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
@@ -26334,10 +26334,10 @@
         <v>216008.8742907321</v>
       </c>
       <c r="I2" t="n">
-        <v>216008.874290732</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="J2" t="n">
-        <v>216008.874290732</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="K2" t="n">
         <v>216008.8742907321</v>
@@ -26420,10 +26420,10 @@
         <v>329658.5476262335</v>
       </c>
       <c r="C4" t="n">
+        <v>279125.0601321634</v>
+      </c>
+      <c r="D4" t="n">
         <v>279125.0601321633</v>
-      </c>
-      <c r="D4" t="n">
-        <v>279125.0601321634</v>
       </c>
       <c r="E4" t="n">
         <v>179.5324977039669</v>
@@ -26524,46 +26524,46 @@
         <v>149204.1617623444</v>
       </c>
       <c r="C6" t="n">
-        <v>145694.4993291909</v>
+        <v>145694.4993291912</v>
       </c>
       <c r="D6" t="n">
-        <v>206270.8215158591</v>
+        <v>206270.8215158592</v>
       </c>
       <c r="E6" t="n">
-        <v>201175.6730292665</v>
+        <v>188957.662409226</v>
       </c>
       <c r="F6" t="n">
-        <v>201175.6730292664</v>
+        <v>188957.6624092259</v>
       </c>
       <c r="G6" t="n">
-        <v>201175.6730292664</v>
+        <v>188957.6624092259</v>
       </c>
       <c r="H6" t="n">
-        <v>201175.6730292664</v>
+        <v>188957.6624092259</v>
       </c>
       <c r="I6" t="n">
-        <v>201175.6730292664</v>
+        <v>188957.6624092259</v>
       </c>
       <c r="J6" t="n">
-        <v>187174.4408889871</v>
+        <v>174956.4302689467</v>
       </c>
       <c r="K6" t="n">
-        <v>152918.7200956338</v>
+        <v>140700.7094755934</v>
       </c>
       <c r="L6" t="n">
-        <v>201175.6730292664</v>
+        <v>188957.662409226</v>
       </c>
       <c r="M6" t="n">
-        <v>201175.6730292664</v>
+        <v>188957.662409226</v>
       </c>
       <c r="N6" t="n">
-        <v>201175.6730292665</v>
+        <v>188957.6624092259</v>
       </c>
       <c r="O6" t="n">
-        <v>201175.6730292664</v>
+        <v>188957.662409226</v>
       </c>
       <c r="P6" t="n">
-        <v>201175.6730292664</v>
+        <v>188957.662409226</v>
       </c>
     </row>
   </sheetData>
@@ -27381,28 +27381,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>311.7603627610578</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>339.7186885401105</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
-        <v>285.9622731058174</v>
+        <v>314.2809551329607</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>169.5833205541816</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27460,13 +27460,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>93.93253655468899</v>
+        <v>101.0578213389329</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27478,10 +27478,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>35.88410384146533</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.02399860067941</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6521996848718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>172.4288530710251</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27587,13 +27587,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>170.5040690270225</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>174.4330604183317</v>
+        <v>204.5051205979195</v>
       </c>
       <c r="U4" t="n">
-        <v>260.1571197910224</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>165.072124342145</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>344.2880590747468</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>117.1351857500687</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27697,22 +27697,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27748,7 +27748,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27757,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>206.4061090279471</v>
+        <v>37.18609735335468</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.91450442245211</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27833,7 +27833,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>143.9416082994493</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27861,22 +27861,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>161.0465736907239</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>150.2901994470699</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27946,10 +27946,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>14.15885273436888</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>179.4819397295606</v>
       </c>
     </row>
     <row r="10">
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>145.9569875857745</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>183.6421058297144</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="N2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>51.35040662570936</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>53.51252900994975</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>51.35040662570936</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="N3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34944,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>226.4350751681936</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36208,10 +36208,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N21" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37627,22 +37627,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38025,13 +38025,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
